--- a/src/test/java/com/test/datas/DataSourceImport.xlsx
+++ b/src/test/java/com/test/datas/DataSourceImport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea project\WebDriver-projects\07_137enviroment\src\test\java\com\test\datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea project\enviroment\07_137enviroment\src\test\java\com\test\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE00016-216A-4DC2-B953-1905648467F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3453782C-9F1B-469D-A7B5-F10DF64680DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShapeFile" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="105">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增版本（已有）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,12 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\WebDriver Resources\孪生可视化平台\行政区划数据.zip</t>
-  </si>
-  <si>
-    <t>D:\WebDriver Resources\孪生可视化平台\线标注默认参数.zip</t>
-  </si>
-  <si>
     <t>FWCS</t>
   </si>
   <si>
@@ -267,12 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\WebDriver Resources\孪生可视化平台\3Dtiles小区模型.zip</t>
-  </si>
-  <si>
-    <t>D:\WebDriver Resources\孪生可视化平台.zip</t>
-  </si>
-  <si>
     <t>GB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,12 +264,6 @@
     <t>WIDTH</t>
   </si>
   <si>
-    <t>D:\WebDriver Resources\深圳数据data\行政区划\行政区划.zip</t>
-  </si>
-  <si>
-    <t>D:\WebDriver Resources\深圳数据data\房屋面.zip</t>
-  </si>
-  <si>
     <t>站列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,6 +409,15 @@
   </si>
   <si>
     <t>f_startben</t>
+  </si>
+  <si>
+    <t>D:\WebDriver Resources\深圳数据data\全球点光源标注字.zip</t>
+  </si>
+  <si>
+    <t>D:\WebDriver Resources\chromedriver_win32 (2).zip</t>
+  </si>
+  <si>
+    <t>D:\WebDriver Resources\zip文件\深圳数据data.zip</t>
   </si>
 </sst>
 </file>
@@ -808,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -925,16 +912,16 @@
         <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>37</v>
@@ -972,13 +959,13 @@
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M11" s="1">
         <v>200</v>
@@ -1028,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>28</v>
@@ -1037,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>22</v>
@@ -1066,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
@@ -1081,13 +1068,13 @@
         <v>24</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>47</v>
@@ -1183,19 +1170,19 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="L19" s="3" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>37</v>
@@ -1218,25 +1205,25 @@
         <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
@@ -1431,13 +1418,13 @@
         <v>20</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -1467,43 +1454,43 @@
         <v>24</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -1514,10 +1501,10 @@
         <v>20</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>24</v>
@@ -1529,43 +1516,43 @@
         <v>24</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:33" s="2" customFormat="1">
@@ -1594,79 +1581,79 @@
         <v>24</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="S37" s="3" t="s">
         <v>24</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="W37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AA37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AB37" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AD37" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AF37" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AG37" s="1"/>
     </row>
@@ -1678,10 +1665,10 @@
         <v>20</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>24</v>
@@ -1693,79 +1680,79 @@
         <v>24</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="W38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AA38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AB38" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AD38" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AE38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AF38" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AG38" s="1"/>
     </row>
@@ -1795,43 +1782,43 @@
         <v>24</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -1842,10 +1829,10 @@
         <v>49</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>24</v>
@@ -1857,43 +1844,43 @@
         <v>24</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:33" s="2" customFormat="1">
@@ -1922,13 +1909,13 @@
         <v>24</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -1939,10 +1926,10 @@
         <v>20</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>24</v>
@@ -1954,13 +1941,13 @@
         <v>24</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:33" s="2" customFormat="1">
@@ -1989,13 +1976,13 @@
         <v>24</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -2006,10 +1993,10 @@
         <v>49</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>24</v>
@@ -2021,13 +2008,13 @@
         <v>24</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2042,7 +2029,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2647,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C69308-C4C6-4B75-8BA4-9C8330EFE3AA}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2660,7 +2647,7 @@
     <col min="7" max="7" width="13.21875" customWidth="1"/>
     <col min="8" max="8" width="14.109375" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="16.88671875" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.44140625" customWidth="1"/>
@@ -2756,16 +2743,16 @@
         <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>37</v>
@@ -2803,13 +2790,13 @@
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M11" s="1">
         <v>200</v>
@@ -3020,19 +3007,19 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="L19" s="3" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>37</v>
@@ -3061,19 +3048,19 @@
         <v>39</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
@@ -3253,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F7CDE0-64DF-4D71-A369-2CDAE4C65000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3266,24 +3253,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="43.2" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3291,27 +3278,10 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1"/>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="43.2" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
